--- a/Exported csv/table_H3_test_results.xlsx
+++ b/Exported csv/table_H3_test_results.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Group:</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -404,7 +404,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -418,10 +418,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.48205112618535</v>
+        <v>28.4821</v>
       </c>
       <c r="F2" t="n">
-        <v>6.534331770226038e-07</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -433,7 +433,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.4162984483613</v>
+        <v>35.4163</v>
       </c>
       <c r="F3" t="n">
-        <v>2.039146870747141e-08</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -462,7 +462,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.54630169179557</v>
+        <v>20.5463</v>
       </c>
       <c r="F4" t="n">
-        <v>3.454834723154762e-05</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>55.13143348111063</v>
+        <v>55.1314</v>
       </c>
       <c r="F5" t="n">
-        <v>1.067483890748691e-12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>47.55832073732363</v>
+        <v>47.5583</v>
       </c>
       <c r="F6" t="n">
-        <v>4.708058684995641e-11</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -549,7 +549,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.10205167458949</v>
+        <v>65.10209999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7.299096385000296e-15</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>71.68838581919523</v>
+        <v>71.6884</v>
       </c>
       <c r="F8" t="n">
-        <v>2.710596112209101e-16</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>91.35156962415954</v>
+        <v>91.3516</v>
       </c>
       <c r="F9" t="n">
-        <v>1.456326323289643e-20</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>139.7219929048015</v>
+        <v>139.722</v>
       </c>
       <c r="F10" t="n">
-        <v>4.568301306359054e-31</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>81.80660342704186</v>
+        <v>81.8066</v>
       </c>
       <c r="F11" t="n">
-        <v>1.721558457237129e-18</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -694,7 +694,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>51.83846589347998</v>
+        <v>51.8385</v>
       </c>
       <c r="F12" t="n">
-        <v>5.538857041016992e-12</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.169504160436977</v>
+        <v>4.1695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1243379421803869</v>
+        <v>0.1243</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>643.6462681557083</v>
+        <v>643.6463</v>
       </c>
       <c r="F14" t="n">
-        <v>1.713912795846706e-140</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jul vs. Other Months</t>
+          <t>Jul vs. Other Months</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.08908698411668683</v>
+        <v>0.0891</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7654159773157225</v>
+        <v>0.7654</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -810,7 +810,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>aug vs. Other Months</t>
+          <t>Aug vs. Other Months</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.311797611007708</v>
+        <v>2.3118</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1287772463793559</v>
+        <v>0.1288</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sep vs. Other Months</t>
+          <t>Sep vs. Other Months</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4164128010503067</v>
+        <v>0.4164</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5189112017168218</v>
+        <v>0.5189</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>oct vs. Other Months</t>
+          <t>Oct vs. Other Months</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0495489819210774</v>
+        <v>0.0495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8239048413624521</v>
+        <v>0.8239</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nov vs. Other Months</t>
+          <t>Nov vs. Other Months</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -911,10 +911,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.001105858767411529</v>
+        <v>0.0011</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9734796878668748</v>
+        <v>0.9735</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dec vs. Other Months</t>
+          <t>Dec vs. Other Months</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1567019816692862</v>
+        <v>0.1567</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6923132317013405</v>
+        <v>0.6923</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jan vs. Other Months</t>
+          <t>Jan vs. Other Months</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8724457607745563</v>
+        <v>0.8724</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3505514114537899</v>
+        <v>0.3506</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>feb vs. Other Months</t>
+          <t>Feb vs. Other Months</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.396524471689155</v>
+        <v>1.3965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2376456391669916</v>
+        <v>0.2376</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mar vs. Other Months</t>
+          <t>Mar vs. Other Months</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5157451715695875</v>
+        <v>0.5157</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4728649171220383</v>
+        <v>0.4729</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>apr vs. Other Months</t>
+          <t>Apr vs. Other Months</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.649586698955237</v>
+        <v>1.6496</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1993744235503261</v>
+        <v>0.1994</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>may vs. Other Months</t>
+          <t>May vs. Other Months</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.02383999826902356</v>
+        <v>0.0238</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8773303503249091</v>
+        <v>0.8773</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jun vs. Other Months</t>
+          <t>Jun vs. Other Months</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.930863457748668</v>
+        <v>1.9309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1650375271440254</v>
+        <v>0.165</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jul vs. Other Months</t>
+          <t>Jul vs. Other Months</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1146,7 +1146,7 @@
         <v>45417</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02110767938013441</v>
+        <v>0.0211</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>aug vs. Other Months</t>
+          <t>Aug vs. Other Months</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1175,7 +1175,7 @@
         <v>47377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01677271862351617</v>
+        <v>0.0168</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sep vs. Other Months</t>
+          <t>Sep vs. Other Months</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1204,7 +1204,7 @@
         <v>48735</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01251068038768188</v>
+        <v>0.0125</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>oct vs. Other Months</t>
+          <t>Oct vs. Other Months</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1233,7 +1233,7 @@
         <v>58962.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3573238067080603</v>
+        <v>0.3573</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nov vs. Other Months</t>
+          <t>Nov vs. Other Months</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1262,7 +1262,7 @@
         <v>50998</v>
       </c>
       <c r="F31" t="n">
-        <v>0.075433076908931</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dec vs. Other Months</t>
+          <t>Dec vs. Other Months</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1291,7 +1291,7 @@
         <v>69149.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1069818633432225</v>
+        <v>0.107</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jan vs. Other Months</t>
+          <t>Jan vs. Other Months</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1320,7 +1320,7 @@
         <v>78282.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2502262064006909</v>
+        <v>0.2502</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>feb vs. Other Months</t>
+          <t>Feb vs. Other Months</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1349,7 +1349,7 @@
         <v>64028</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001149580649845926</v>
+        <v>0.0011</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mar vs. Other Months</t>
+          <t>Mar vs. Other Months</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1378,7 +1378,7 @@
         <v>75748</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0001106059668312024</v>
+        <v>0.0001</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>apr vs. Other Months</t>
+          <t>Apr vs. Other Months</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1407,7 +1407,7 @@
         <v>85237</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01366080943721977</v>
+        <v>0.0137</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>may vs. Other Months</t>
+          <t>May vs. Other Months</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1436,7 +1436,7 @@
         <v>40501.5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1651822395727097</v>
+        <v>0.1652</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jun vs. Other Months</t>
+          <t>Jun vs. Other Months</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1465,7 +1465,7 @@
         <v>26240.5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1354542693466665</v>
+        <v>0.1355</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
